--- a/assets/al_mathurat_database.xlsx
+++ b/assets/al_mathurat_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanguine/Tutorial/projects/complete_al_mathurat_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB659D0D-DC7F-8D45-99D1-1E904EF6D7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{791B54E7-DAD8-1340-B798-6A584F49AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" activeTab="1" xr2:uid="{B7BFE0D5-57CB-E044-9E75-EEE509B84574}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{B7BFE0D5-57CB-E044-9E75-EEE509B84574}"/>
   </bookViews>
   <sheets>
     <sheet name="Quran" sheetId="1" r:id="rId1"/>
@@ -1498,13 +1498,189 @@
     <t>أَفَحَسِبْتُمْ أَنَّمَا خَلَقْنَاكُمْ عَبَثًا وَأَنَّكُمْ إِلَيْنَا لَا تُرْجَعُونَ۞ فَتَعَالَى اللَّهُ الْمَلِكُ الْحَقُّ ۖ لَا إِلَٰهَ إِلَّا هُوَ رَبُّ الْعَرْشِ الْكَرِيمِ۞ وَمَنْ يَدْعُ مَعَ اللَّهِ إِلَٰهًا آخَرَ لَا بُرْهَانَ لَهُ بِهِ فَإِنَّمَا حِسَابُهُ عِنْدَ رَبِّهِ ۚ إِنَّهُ لَا يُفْلِحُ الْكَافِرُونَ۞ وَقُلْ رَبِّ اغْفِرْ وَارْحَمْ وَأَنْتَ خَيْرُ الرَّاحِمِينَ۞</t>
   </si>
   <si>
+    <t>فَسُبْحَانَ اللَّهِ حِينَ تُمْسُونَ وَحِينَ تُصْبِحُونَ۞ وَلَهُ الْحَمْدُ فِي السَّمَاوَاتِ وَالْأَرْضِ وَعَشِيًّا وَحِينَ تُظْهِرُونَ۞ يُخْرِجُ الْحَيَّ مِنَ الْمَيِّتِ وَيُخْرِجُ الْمَيِّتَ مِنَ الْحَيِّ وَيُحْيِي الْأَرْضَ بَعْدَ مَوْتِهَا ۚ وَكَذَٰلِكَ تُخْرَجُونَ۞ وَمِنْ آيَاتِهِ أَنْ خَلَقَكُمْ مِنْ تُرَابٍ ثُمَّ إِذَا أَنْتُمْ بَشَرٌ تَنْتَشِرُونَ۞ وَمِنْ آيَاتِهِ أَنْ خَلَقَ لَكُمْ مِنْ أَنْفُسِكُمْ أَزْوَاجًا لِتَسْكُنُوا إِلَيْهَا وَجَعَلَ بَيْنَكُمْ مَوَدَّةً وَرَحْمَةً ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِقَوْمٍ يَتَفَكَّرُونَ۞ وَمِنْ آيَاتِهِ خَلْقُ السَّمَاوَاتِ وَالْأَرْضِ وَاخْتِلَافُ أَلْسِنَتِكُمْ وَأَلْوَانِكُمْ ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِلْعَالِمِينَ۞ وَمِنْ آيَاتِهِ مَنَامُكُمْ بِاللَّيْلِ وَالنَّهَارِ وَابْتِغَاؤُكُمْ مِنْ فَضْلِهِ ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِقَوْمٍ يَسْمَعُونَ۞ وَمِنْ آيَاتِهِ يُرِيكُمُ الْبَرْقَ خَوْفًا وَطَمَعًا وَيُنَزِّلُ مِنَ السَّمَاءِ مَاءً فَيُحْيِي بِهِ الْأَرْضَ بَعْدَ مَوْتِهَا ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِقَوْمٍ يَعْقِلُونَ۞ وَمِنْ آيَاتِهِ أَنْ تَقُومَ السَّمَاءُ وَالْأَرْضُ بِأَمْرِهِ ۚ ثُمَّ إِذَا دَعَاكُمْ دَعْوَةً مِنَ الْأَرْضِ إِذَا أَنْتُمْ تَخْرُجُونَ۞ وَلَهُ مَنْ فِي السَّمَاوَاتِ وَالْأَرْضِ ۖ كُلٌّ لَهُ قَانِتُونَ۞</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">سُبْحَانَ اللَّهِ وَبِحَمْدِهِ، عَدَدَ خَلْقِهِ، وَرِضَا نَفْسِهِ، وَزِنَةَ عَرْشِهِ، وَمِدَادَ كَلِمَاتِهِ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ثلاثة]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SubhanAllahi wa bihamdihi, ‘adada khalqihi, wa rida nafsihi, wa zinata ‘arshihi, wa midada kalimatihi.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3 Times]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Glory and praise be to Allah, [as great as] the number of His creatures, the extent
+of His satisfaction, the weight of His throne, and the ink [it would take to record]
+His Words. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3 Times]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">رَضِيتُ بِاللهِ رَبًا، وبِالِإسلَامِ دِينَا، وبِمُحمَّدٍ نَبِيَّا ورَسُولَا </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ثلاثة]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raḍītu billāhi rabban, wa bil-islāmi dīnā, wa bimuḥammadin nabiyyan wa rasūlā. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3 Times]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have accepted Allah as Lord, Islam as a way of life and Muhammad  ﷺ as a Prophet and Messenger of Allah </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3 Times]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أَصْبَحْنَا وَأَصْبَحَ  الْمُلْكُ لِلَّهِ، وَالْحَمْدُ لِلَّهِ، لَا شَرِيكَ لَهُ، لَا إِلَهَ إِلَّا هُوَ، وَإِلَيْهِ النُّشُورُ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ثلاثة]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أَصْبَحْنَا عَلَى فِطْرَةِ الْإِسْلَامِ وَكَلِمَةِ الْإِخْلَاصِ وَعَلَى دِينِ نَبِيِّنَا مُحَمَّدٍ صَلَّى اللَّهُ عَلَيْهِ وَسَّلَّمَ وَعَلَى مِلَّةِ أَبِينَا إِبْرَاهِيمَ حَنِيفًا وَمَا كَانَ مِنَ الْمُشْرِكِينَ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ثلاثة]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>أَمْسَيْنَا عَلَى فِطْرَةِ الْإِسْلَامِ وَكَلِمَةِ الْإِخْلَاصِ وَعَلَى دِينِ نَبِيِّنَا مُحَمَّدٍ صَلَّى اللَّهُ عَلَيْهِ وَسَّلَّمَ وَعَلَى مِلَّةِ أَبِينَا إِبْرَاهِيمَ حَنِيفًا وَمَا كَانَ مِنَ الْمُشْرِكِينَ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ثلاثة]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">أَمْسَيْـنا وَأَمْسـى الْمُلْكُ لِلَّهِ، وَالْحَمْدُ لِلَّهِ، لَا شَرِيكَ لَهُ، لَا إِلَهَ إِلَّا هُوَ، وَإِلَيْهِ النُّشُورُ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ثلاثة]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>بِسْمِ اللَّهِ الرَّحْمَٰنِ الرَّحِيمِ۞</t>
+      <t>أَعُوذُ  بِااللّٰه السَّمِيعِ الْعَاِيمِ مِنَ الشَيْطَانِ الرَّجِيمِ
+بِسْمِ اللَّهِ الرَّحْمَٰنِ الرَّحِيمِ۞</t>
     </r>
     <r>
       <rPr>
@@ -1517,181 +1693,6 @@
       <t xml:space="preserve">
  الْحَمْدُ لِلَّهِ رَبِّ الْعَالَمِينَ۞ الرَّحْمَٰنِ الرَّحِيمِ۞ مَالِكِ يَوْمِ الدِّينِ۞ إِيَّاكَ نَعْبُدُ وَإِيَّاكَ نَسْتَعِينُ۞ اهْدِنَا الصِّرَاطَ الْمُسْتَقِيمَ۞ صِرَاطَ الَّذِينَ أَنْعَمْتَ عَلَيْهِمْ غَيْرِ الْمَغْضُوبِ عَلَيْهِمْ وَلَا الضَّالِّينَ۞
 </t>
-    </r>
-  </si>
-  <si>
-    <t>فَسُبْحَانَ اللَّهِ حِينَ تُمْسُونَ وَحِينَ تُصْبِحُونَ۞ وَلَهُ الْحَمْدُ فِي السَّمَاوَاتِ وَالْأَرْضِ وَعَشِيًّا وَحِينَ تُظْهِرُونَ۞ يُخْرِجُ الْحَيَّ مِنَ الْمَيِّتِ وَيُخْرِجُ الْمَيِّتَ مِنَ الْحَيِّ وَيُحْيِي الْأَرْضَ بَعْدَ مَوْتِهَا ۚ وَكَذَٰلِكَ تُخْرَجُونَ۞ وَمِنْ آيَاتِهِ أَنْ خَلَقَكُمْ مِنْ تُرَابٍ ثُمَّ إِذَا أَنْتُمْ بَشَرٌ تَنْتَشِرُونَ۞ وَمِنْ آيَاتِهِ أَنْ خَلَقَ لَكُمْ مِنْ أَنْفُسِكُمْ أَزْوَاجًا لِتَسْكُنُوا إِلَيْهَا وَجَعَلَ بَيْنَكُمْ مَوَدَّةً وَرَحْمَةً ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِقَوْمٍ يَتَفَكَّرُونَ۞ وَمِنْ آيَاتِهِ خَلْقُ السَّمَاوَاتِ وَالْأَرْضِ وَاخْتِلَافُ أَلْسِنَتِكُمْ وَأَلْوَانِكُمْ ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِلْعَالِمِينَ۞ وَمِنْ آيَاتِهِ مَنَامُكُمْ بِاللَّيْلِ وَالنَّهَارِ وَابْتِغَاؤُكُمْ مِنْ فَضْلِهِ ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِقَوْمٍ يَسْمَعُونَ۞ وَمِنْ آيَاتِهِ يُرِيكُمُ الْبَرْقَ خَوْفًا وَطَمَعًا وَيُنَزِّلُ مِنَ السَّمَاءِ مَاءً فَيُحْيِي بِهِ الْأَرْضَ بَعْدَ مَوْتِهَا ۚ إِنَّ فِي ذَٰلِكَ لَآيَاتٍ لِقَوْمٍ يَعْقِلُونَ۞ وَمِنْ آيَاتِهِ أَنْ تَقُومَ السَّمَاءُ وَالْأَرْضُ بِأَمْرِهِ ۚ ثُمَّ إِذَا دَعَاكُمْ دَعْوَةً مِنَ الْأَرْضِ إِذَا أَنْتُمْ تَخْرُجُونَ۞ وَلَهُ مَنْ فِي السَّمَاوَاتِ وَالْأَرْضِ ۖ كُلٌّ لَهُ قَانِتُونَ۞</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">سُبْحَانَ اللَّهِ وَبِحَمْدِهِ، عَدَدَ خَلْقِهِ، وَرِضَا نَفْسِهِ، وَزِنَةَ عَرْشِهِ، وَمِدَادَ كَلِمَاتِهِ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ثلاثة]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SubhanAllahi wa bihamdihi, ‘adada khalqihi, wa rida nafsihi, wa zinata ‘arshihi, wa midada kalimatihi.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[3 Times]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Glory and praise be to Allah, [as great as] the number of His creatures, the extent
-of His satisfaction, the weight of His throne, and the ink [it would take to record]
-His Words. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[3 Times]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">رَضِيتُ بِاللهِ رَبًا، وبِالِإسلَامِ دِينَا، وبِمُحمَّدٍ نَبِيَّا ورَسُولَا </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ثلاثة]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Raḍītu billāhi rabban, wa bil-islāmi dīnā, wa bimuḥammadin nabiyyan wa rasūlā. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[3 Times]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I have accepted Allah as Lord, Islam as a way of life and Muhammad  ﷺ as a Prophet and Messenger of Allah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[3 Times]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أَصْبَحْنَا وَأَصْبَحَ  الْمُلْكُ لِلَّهِ، وَالْحَمْدُ لِلَّهِ، لَا شَرِيكَ لَهُ، لَا إِلَهَ إِلَّا هُوَ، وَإِلَيْهِ النُّشُورُ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ثلاثة]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أَصْبَحْنَا عَلَى فِطْرَةِ الْإِسْلَامِ وَكَلِمَةِ الْإِخْلَاصِ وَعَلَى دِينِ نَبِيِّنَا مُحَمَّدٍ صَلَّى اللَّهُ عَلَيْهِ وَسَّلَّمَ وَعَلَى مِلَّةِ أَبِينَا إِبْرَاهِيمَ حَنِيفًا وَمَا كَانَ مِنَ الْمُشْرِكِينَ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ثلاثة]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>أَمْسَيْنَا عَلَى فِطْرَةِ الْإِسْلَامِ وَكَلِمَةِ الْإِخْلَاصِ وَعَلَى دِينِ نَبِيِّنَا مُحَمَّدٍ صَلَّى اللَّهُ عَلَيْهِ وَسَّلَّمَ وَعَلَى مِلَّةِ أَبِينَا إِبْرَاهِيمَ حَنِيفًا وَمَا كَانَ مِنَ الْمُشْرِكِينَ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ثلاثة]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">أَمْسَيْـنا وَأَمْسـى الْمُلْكُ لِلَّهِ، وَالْحَمْدُ لِلَّهِ، لَا شَرِيكَ لَهُ، لَا إِلَهَ إِلَّا هُوَ، وَإِلَيْهِ النُّشُورُ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[ثلاثة]</t>
     </r>
   </si>
 </sst>
@@ -2123,9 +2124,9 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
@@ -2297,7 +2298,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
@@ -2437,7 +2438,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2469,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>71</v>
@@ -2483,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>73</v>
@@ -2564,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>79</v>
@@ -2578,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>80</v>
@@ -2673,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2687,13 +2688,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/assets/al_mathurat_database.xlsx
+++ b/assets/al_mathurat_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanguine/Tutorial/projects/complete_al_mathurat_app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{791B54E7-DAD8-1340-B798-6A584F49AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13897904-CB4F-ED45-9341-4173CCCCDA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{B7BFE0D5-57CB-E044-9E75-EEE509B84574}"/>
   </bookViews>
@@ -55,24 +55,6 @@
     <t>Translation</t>
   </si>
   <si>
-    <t>In the name of Allah, the Entirely Merciful, the Especially Merciful.
-[All] praise is [due] to Allah, Lord of the worlds
-The Entirely Merciful, the Especially Merciful
-Sovereign of the Day of Recompense.
-It is You we worship and You we ask for help.
-Guide us to the straight path 
-The path of those upon whom You have bestowed favor, not of those who have evoked [Your] anger or of those who are astray.</t>
-  </si>
-  <si>
-    <t>Bismillaahir Rahmaanir Raheem
-Alhamdu lillaahi Rabbil 'aalameen
-Ar-Rahmaanir-Raheem
-Maaliki Yawmid-Deen
-Iyyaaka na'budu wa lyyaaka nasta'een
-Ihdinas-Siraatal-Mustaqeem
-Siraatal-lazeena an'amta 'alaihim ghayril-maghdoobi 'alaihim wa lad-daaalleen</t>
-  </si>
-  <si>
     <t>1-7</t>
   </si>
   <si>
@@ -1673,13 +1655,33 @@
     </r>
   </si>
   <si>
+    <t>A'udhu billahi as-sami'i al-'aleem mina ash-shaytani ar-rajim
+Bismillaahir Rahmaanir Raheem
+Alhamdu lillaahi Rabbil 'aalameen
+Ar-Rahmaanir-Raheem
+Maaliki Yawmid-Deen
+Iyyaaka na'budu wa lyyaaka nasta'een
+Ihdinas-Siraatal-Mustaqeem
+Siraatal-lazeena an'amta 'alaihim ghayril-maghdoobi 'alaihim wa lad-daaalleen</t>
+  </si>
+  <si>
+    <t>I seek refuge with Allah, the All-Hearer, the All-Knower, from the rejected satan
+In the name of Allah, the Entirely Merciful, the Especially Merciful.
+[All] praise is [due] to Allah, Lord of the worlds
+The Entirely Merciful, the Especially Merciful
+Sovereign of the Day of Recompense.
+It is You we worship and You we ask for help.
+Guide us to the straight path 
+The path of those upon whom You have bestowed favor, not of those who have evoked [Your] anger or of those who are astray.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>أَعُوذُ  بِااللّٰه السَّمِيعِ الْعَاِيمِ مِنَ الشَيْطَانِ الرَّجِيمِ
+      <t>أَعُوذُ بِاللهِ السَّمِيعِ العَلِيمِ مِنَ الشَّيْطَانِ الرَّجِيمِ
 بِسْمِ اللَّهِ الرَّحْمَٰنِ الرَّحِيمِ۞</t>
     </r>
     <r>
@@ -2159,16 +2161,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,16 +2178,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2193,16 +2195,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2210,16 +2212,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,16 +2229,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2247,13 +2249,13 @@
         <v>129</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2261,16 +2263,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,16 +2280,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,16 +2297,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2312,16 +2314,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,16 +2331,16 @@
         <v>99</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2346,16 +2348,16 @@
         <v>109</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2363,16 +2365,16 @@
         <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2380,16 +2382,16 @@
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2397,16 +2399,16 @@
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2414,16 +2416,16 @@
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2453,10 +2455,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -2470,13 +2472,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -2484,13 +2486,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2498,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2512,13 +2514,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2548,10 +2550,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
@@ -2565,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -2579,13 +2581,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -2593,13 +2595,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -2607,13 +2609,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2645,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
@@ -2655,18 +2657,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2674,13 +2676,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2688,13 +2690,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -2702,139 +2704,139 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -2842,55 +2844,55 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
